--- a/data/category_pdp_plp.xlsx
+++ b/data/category_pdp_plp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amida\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D698FDD-6812-40F2-AB56-B0C2D0A49090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC1FAED6-8DD8-4693-8C64-3FD6868016AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
